--- a/LPIC-1.xlsx
+++ b/LPIC-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\Desktop\Neuer Ordner (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB293311-957D-4AD1-A091-EE8790332803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118530CF-209B-4A53-849F-B16DD6607AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26880" yWindow="2700" windowWidth="31800" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18330" yWindow="5175" windowWidth="31800" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Frage</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>user</t>
+  </si>
+  <si>
+    <t>hostnamectl set-hostname centos-server.linux.local</t>
+  </si>
+  <si>
+    <t>Ändere den Computername zu centos-server.linux.local</t>
   </si>
 </sst>
 </file>
@@ -360,10 +366,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,6 +398,14 @@
         <v>5</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/LPIC-1.xlsx
+++ b/LPIC-1.xlsx
@@ -8,12 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\Desktop\Neuer Ordner (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{118530CF-209B-4A53-849F-B16DD6607AB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0768B574-91EE-41B1-8D7E-ED0C12AFDAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18330" yWindow="5175" windowWidth="31800" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="35805" yWindow="3030" windowWidth="17595" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
+    <sheet name="03-15-Authentication" sheetId="1" r:id="rId1"/>
+    <sheet name="03-16-Admin-Rechte" sheetId="2" r:id="rId2"/>
+    <sheet name="03-19-Network" sheetId="3" r:id="rId3"/>
+    <sheet name="03-20-SSH" sheetId="4" r:id="rId4"/>
+    <sheet name="04-23-Grundlagen mit Shell" sheetId="5" r:id="rId5"/>
+    <sheet name="04-24 Dateien" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="113">
   <si>
     <t>Frage</t>
   </si>
@@ -33,22 +38,337 @@
     <t>Antwort</t>
   </si>
   <si>
-    <t>aktuelles Verzeichnis anzeigen</t>
-  </si>
-  <si>
     <t>pwd</t>
   </si>
   <si>
-    <t>Was bedeutet denn das $ in der Kommandozeile?</t>
-  </si>
-  <si>
-    <t>user</t>
-  </si>
-  <si>
     <t>hostnamectl set-hostname centos-server.linux.local</t>
   </si>
   <si>
     <t>Ändere den Computername zu centos-server.linux.local</t>
+  </si>
+  <si>
+    <t>Alt + F2</t>
+  </si>
+  <si>
+    <t>hostname -s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gib nur den Systemnamen aus. </t>
+  </si>
+  <si>
+    <t>Gib nur die Domain des Systems aus</t>
+  </si>
+  <si>
+    <t>hostname -d</t>
+  </si>
+  <si>
+    <t>Welches Symbol impliziert Adminrechte in der Kommandozeile?</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>$</t>
+  </si>
+  <si>
+    <t>Welches Symbol impliziert Nutzerrechte in der Kommandozeile?</t>
+  </si>
+  <si>
+    <t>Wer ist aktuell angemeldet?</t>
+  </si>
+  <si>
+    <t>who</t>
+  </si>
+  <si>
+    <t>shutdown -h now</t>
+  </si>
+  <si>
+    <t>Fahre das System jetzt runter, ohne Rückfragen.</t>
+  </si>
+  <si>
+    <t>Führe sofort einen Neustart durch</t>
+  </si>
+  <si>
+    <t>shutdown -r now</t>
+  </si>
+  <si>
+    <t>UBUNTU: Ist das Abmelden vom Terminal möglich? (ja/nein)</t>
+  </si>
+  <si>
+    <t>nein</t>
+  </si>
+  <si>
+    <t>UBUNTU: Anmelden als Root um mehrere Befehle gleichzeitig als root durchzuführen.</t>
+  </si>
+  <si>
+    <t>su -</t>
+  </si>
+  <si>
+    <t>sudo su -</t>
+  </si>
+  <si>
+    <t>Ändere das Passwort vom Nutzer "user".</t>
+  </si>
+  <si>
+    <t>passwd user</t>
+  </si>
+  <si>
+    <t>Zeig die aktuelle Systemzeit an</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>date 01021255</t>
+  </si>
+  <si>
+    <t>Ändere Systemzeit auf 02. Jan 12:55</t>
+  </si>
+  <si>
+    <t>Erstelle eine weitere Session im der selben Shell ohne neu generierte Umgebungsparameter</t>
+  </si>
+  <si>
+    <t>su</t>
+  </si>
+  <si>
+    <t>Erstelle eine weitere Session im der selben Shell mit neu generierte Umgebungsparameter</t>
+  </si>
+  <si>
+    <t>~</t>
+  </si>
+  <si>
+    <t>Was weist auf das "Homeverzeichnis"des Nutzers in der Eingabe hin?</t>
+  </si>
+  <si>
+    <t>Zeige jeden Prozess an mit Details.</t>
+  </si>
+  <si>
+    <t>ps -ef</t>
+  </si>
+  <si>
+    <t>Befehl um RootRechte in Ubuntu zu nutzen</t>
+  </si>
+  <si>
+    <t>sudo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wer ist alles Admin? </t>
+  </si>
+  <si>
+    <t>cat /etc/sudoers</t>
+  </si>
+  <si>
+    <t>In welchen Gruppen bist du?</t>
+  </si>
+  <si>
+    <t>Welches Zeichen zeigt dass es sich um eine Gruppe handelt? (im sudo file)</t>
+  </si>
+  <si>
+    <t>%</t>
+  </si>
+  <si>
+    <t>groups</t>
+  </si>
+  <si>
+    <t>cat /etc/group</t>
+  </si>
+  <si>
+    <t>Welcher Nutzer bist du selbst gerade?</t>
+  </si>
+  <si>
+    <t>whoami</t>
+  </si>
+  <si>
+    <t>Zeig mir bitte das aktuelle Verzeichnis an.</t>
+  </si>
+  <si>
+    <t>Welche Gruppen gibt’s alles?</t>
+  </si>
+  <si>
+    <t>ip-addressen anzeigen</t>
+  </si>
+  <si>
+    <t>ip addr show</t>
+  </si>
+  <si>
+    <t>Wo werden die Einstellungen von Netzwerk gespeichert?</t>
+  </si>
+  <si>
+    <t>/etc/sysconfig/network-scripts</t>
+  </si>
+  <si>
+    <t>wie editiere ich Netzwerkkonfiguration von "ifcfg-eth0"?</t>
+  </si>
+  <si>
+    <t>vi ifcfg-eth0</t>
+  </si>
+  <si>
+    <t>Wie schließe ich das editieren ohne die Änderungen zu übernehmen?</t>
+  </si>
+  <si>
+    <t>:q!</t>
+  </si>
+  <si>
+    <t>wie starte ich netzwerkservice neu?</t>
+  </si>
+  <si>
+    <t>service network restart</t>
+  </si>
+  <si>
+    <t>wie zeige ich die default route</t>
+  </si>
+  <si>
+    <t>ip route show</t>
+  </si>
+  <si>
+    <t>Wo sind die konfigurierten DNS server gespeichert?</t>
+  </si>
+  <si>
+    <t>/etc/resolv.conf</t>
+  </si>
+  <si>
+    <t>Aktuelle IP-Konfiguration "ifcfg-eth0" wegspeichern als Backup mit .old als extension</t>
+  </si>
+  <si>
+    <t>cp ifcfg-eth0 ifcfg-eth0.old</t>
+  </si>
+  <si>
+    <t>Setze innerhalb der IP-Konfigurationsdatei Eintrag Netzwerk-Gateway auf 192.168.1.1 (Ohne Anführungszeichen)</t>
+  </si>
+  <si>
+    <t>GATEWAY=192.168.1.1</t>
+  </si>
+  <si>
+    <t>Setze innerhalb der IP-Konfigurationsdatei Eintrag IP-Adresse auf 192.168.1.44 (Ohne Anführungszeichen)</t>
+  </si>
+  <si>
+    <t>IPADDR=192.168.1.44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Setze innerhalb der IP-Konfigurationsdatei Eintrag Subnetz so, dass 192.168.1.xxx das Netzwerk ist </t>
+  </si>
+  <si>
+    <t>NETMASK=255.255.255.0</t>
+  </si>
+  <si>
+    <t>Setze innerhalb der IP-Konfigurationsdatei so, dass nicht DHCP verwendet wird</t>
+  </si>
+  <si>
+    <t>BOOTPROTO=static</t>
+  </si>
+  <si>
+    <t>Im Texteditor etwas anhängen</t>
+  </si>
+  <si>
+    <t>Taste A drücken für append</t>
+  </si>
+  <si>
+    <t>Öffne die Datei die den DNS speichert</t>
+  </si>
+  <si>
+    <t>vi /etc/resolv.conf</t>
+  </si>
+  <si>
+    <t>In der geöffneten DNS-Datei möchtest du am Ende etwas anhängen.</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>Du möchtest den DNS-Eintrag auf den Google-DNS ändern</t>
+  </si>
+  <si>
+    <t>nameserver 8.8.8.8</t>
+  </si>
+  <si>
+    <t>ping www.google.de</t>
+  </si>
+  <si>
+    <t>Checke ob der DNS funktioniert mit Google selbst</t>
+  </si>
+  <si>
+    <t>ps -ef | grep ssh</t>
+  </si>
+  <si>
+    <t>Überprüfe ob SSH-Dienst läuft, filter am besten nach "ssh", da der Demon sshd heißt</t>
+  </si>
+  <si>
+    <t>ssh roman@172.1.1.15</t>
+  </si>
+  <si>
+    <t>Jetzt möchtest du in PS mit dem User roman auf den Host mit der IP 172.1.1.15 connecten</t>
+  </si>
+  <si>
+    <t>Wie wird das Homeverzeichnis in der Konsole abgekürzt?</t>
+  </si>
+  <si>
+    <t>Zeig alle Dateien/Ordner an</t>
+  </si>
+  <si>
+    <t>ls</t>
+  </si>
+  <si>
+    <t>Bewege dich in Ordner "documents" der relativ im aktuellen Ordner ist.</t>
+  </si>
+  <si>
+    <t>cd documents</t>
+  </si>
+  <si>
+    <t>Bewege dich einen Ordner zurück</t>
+  </si>
+  <si>
+    <t>cd ..</t>
+  </si>
+  <si>
+    <t>cd ~</t>
+  </si>
+  <si>
+    <t>Bewege dich direkt ins Homeverzeichnis.</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Womit fängt ein absoluter Pfad an?</t>
+  </si>
+  <si>
+    <t>In welchem Verzeichnis hat root sein Homeverzeichnis</t>
+  </si>
+  <si>
+    <t>/root</t>
+  </si>
+  <si>
+    <t>In welchem Verzeichnis hat Nutzer user sein Homeverzeichnis</t>
+  </si>
+  <si>
+    <t>/home/user</t>
+  </si>
+  <si>
+    <t>Du möchtest den Bildschirm leer haben und mit einer leeren Kommandozeile starten</t>
+  </si>
+  <si>
+    <t>clear</t>
+  </si>
+  <si>
+    <t>Autovervollständigung bei der Eingabe von Dateinamen (Schreibs Zeichen UPPERCASE)</t>
+  </si>
+  <si>
+    <t>TAB</t>
+  </si>
+  <si>
+    <t>touch baum.txt</t>
+  </si>
+  <si>
+    <t>cat baum.txt</t>
+  </si>
+  <si>
+    <t>Erstelle eine Datei baum.txt im selben Verzeichnis</t>
+  </si>
+  <si>
+    <t>Zeig den kompletten Inhalt von baum.txt an, das im selben Verzeichnis ist.</t>
+  </si>
+  <si>
+    <t>Öffne eine zweite Konsole auf Linux-Konsole (UPPERCASE)</t>
   </si>
 </sst>
 </file>
@@ -366,13 +686,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -384,29 +708,588 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>7</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B7" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0BD566-F0A2-4751-8B1A-8396B15F53DE}">
+  <dimension ref="A1:B13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="85" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>40</v>
+      </c>
+      <c r="B9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>43</v>
+      </c>
+      <c r="B11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>50</v>
+      </c>
+      <c r="B12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2A098A2-573C-4787-A87F-31F1322C792A}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="64.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B5" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>69</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>71</v>
+      </c>
+      <c r="B12" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719698A6-0146-4171-9B2A-663DD51B303E}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="81" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F7B9915A-4543-4349-987A-A08C689A1D68}">
+  <dimension ref="A1:B9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>97</v>
+      </c>
+      <c r="B6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{421AFF8B-E39D-46B4-88E1-7977F5F318E9}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="77.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B4" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>111</v>
+      </c>
+      <c r="B5" t="s">
+        <v>109</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LPIC-1.xlsx
+++ b/LPIC-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\Desktop\Neuer Ordner (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0768B574-91EE-41B1-8D7E-ED0C12AFDAB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{CAE04CBB-E514-44E7-A8BF-D205CB49022C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="35805" yWindow="3030" windowWidth="17595" windowHeight="13755" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6000" yWindow="7545" windowWidth="43200" windowHeight="23535" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="03-15-Authentication" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,11 @@
     <sheet name="03-20-SSH" sheetId="4" r:id="rId4"/>
     <sheet name="04-23-Grundlagen mit Shell" sheetId="5" r:id="rId5"/>
     <sheet name="04-24 Dateien" sheetId="6" r:id="rId6"/>
+    <sheet name="04-25 Head und Tail" sheetId="7" r:id="rId7"/>
+    <sheet name="04-26 Less und more" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="119">
   <si>
     <t>Frage</t>
   </si>
@@ -369,6 +372,24 @@
   </si>
   <si>
     <t>Öffne eine zweite Konsole auf Linux-Konsole (UPPERCASE)</t>
+  </si>
+  <si>
+    <t>Gib die die ersten 10 Zeilen von /etc/group aus.</t>
+  </si>
+  <si>
+    <t>head -n 10 /etc/group</t>
+  </si>
+  <si>
+    <t>Wo werden log-dateien (e.g. Bootup) gespeichert?</t>
+  </si>
+  <si>
+    <t>/var/log</t>
+  </si>
+  <si>
+    <t>Gib die letzten 3 Zeilen von /var/log/boot.log aus.</t>
+  </si>
+  <si>
+    <t>tail -n 3 /var/log/boot.log</t>
   </si>
 </sst>
 </file>
@@ -688,8 +709,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1292,4 +1313,67 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17236685-BE58-4274-A222-9109B2DF9443}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="47" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>115</v>
+      </c>
+      <c r="B3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F02DE26-447E-49D4-84A4-A31462C006D2}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/LPIC-1.xlsx
+++ b/LPIC-1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\Desktop\Neuer Ordner (2)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{CAE04CBB-E514-44E7-A8BF-D205CB49022C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{646488B5-D529-4635-8B59-91FA161663E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6000" yWindow="7545" windowWidth="43200" windowHeight="23535" firstSheet="3" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8850" yWindow="11565" windowWidth="29880" windowHeight="20775" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="03-15-Authentication" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,9 @@
     <sheet name="04-24 Dateien" sheetId="6" r:id="rId6"/>
     <sheet name="04-25 Head und Tail" sheetId="7" r:id="rId7"/>
     <sheet name="04-26 Less und more" sheetId="8" r:id="rId8"/>
+    <sheet name="04-27 Parameter nachschauen" sheetId="9" r:id="rId9"/>
+    <sheet name="04-28 Die Path-Variable" sheetId="10" r:id="rId10"/>
+    <sheet name="04-29 Programme Starten path" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="145">
   <si>
     <t>Frage</t>
   </si>
@@ -390,6 +393,84 @@
   </si>
   <si>
     <t>tail -n 3 /var/log/boot.log</t>
+  </si>
+  <si>
+    <t>more spam1.txt</t>
+  </si>
+  <si>
+    <t>STRG + C</t>
+  </si>
+  <si>
+    <t>Du hast dich vertippt und möchtest deine Eingabe komplett löschen. (Uppercase)</t>
+  </si>
+  <si>
+    <t>Zeige die ersten paar Zeilen von spam1.txt an, mit der Möglichkeit (nur) nach unten mit ENTER durchzuscrollen.</t>
+  </si>
+  <si>
+    <t>Zeige die ersten paar Zeilen von spam1.txt an, mit der Möglichkeit mit Pfeiltasten nach unten + oben durchzuscrollen.</t>
+  </si>
+  <si>
+    <t>less spam1.txt</t>
+  </si>
+  <si>
+    <t>Wie beendest du das Programm less? (Uppercase)</t>
+  </si>
+  <si>
+    <t>Q</t>
+  </si>
+  <si>
+    <t>head --help</t>
+  </si>
+  <si>
+    <t>Rufe die Hilfe zum Befehl "head" mit einem Parameter von "head" auf. Ausführlicher Parameter</t>
+  </si>
+  <si>
+    <t>head -n 4 text.txt</t>
+  </si>
+  <si>
+    <t>Aufruf von head mit 4 Zeilen (Kurzschreibweise) von datei text.txt.</t>
+  </si>
+  <si>
+    <t>Aufruf von head mit 4 Zeilen (Langschreibweise /Verbose) von datei text.txt.</t>
+  </si>
+  <si>
+    <t>head --lines=4 text.txt</t>
+  </si>
+  <si>
+    <t>Ausführliche Dokumentation zum Befehl head anzeigen lassen.</t>
+  </si>
+  <si>
+    <t>man head</t>
+  </si>
+  <si>
+    <t>Gib die Variable aus, die alle Pfade zu ausführbaren Befehlen (ohne Pfadangabe) beinhaltet.</t>
+  </si>
+  <si>
+    <t>echo $PATH</t>
+  </si>
+  <si>
+    <t>Gib den Pfad aus, von dem aus der Befehl cat gestartet wird.</t>
+  </si>
+  <si>
+    <t>which cat</t>
+  </si>
+  <si>
+    <t>Ich möchte eine Datei ausführen können. Was sollte ich Ganz oben in die Datei schreiben, wenn die Datei mit bash laufen soll?</t>
+  </si>
+  <si>
+    <t>#!/bin/bash</t>
+  </si>
+  <si>
+    <t>export PATH=$PATH:~/bin</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>Was trennt einzelne Pfade in der PATH-Variable voneinander?</t>
+  </si>
+  <si>
+    <t>Setze die Variable PATH auf den bisherigen Inhalt und füge ~/bin hinzu (erstmal nur temporär)</t>
   </si>
 </sst>
 </file>
@@ -836,6 +917,99 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4B9A7C3-8117-47F3-BDAE-823BC11FD3F1}">
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="84.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84BDF7D-DEC1-439E-B1D8-5715028080F7}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="115.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA0BD566-F0A2-4751-8B1A-8396B15F53DE}">
   <dimension ref="A1:B13"/>
@@ -1368,12 +1542,118 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F02DE26-447E-49D4-84A4-A31462C006D2}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="91.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
+        <v>126</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE157A2E-ED0B-44EC-BA1B-83850810F5CB}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="87.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>131</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>133</v>
+      </c>
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/LPIC-1.xlsx
+++ b/LPIC-1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Roman\Desktop\Neuer Ordner (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sysadmin\lernplattform_5.1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:2001_{646488B5-D529-4635-8B59-91FA161663E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{153CF4F2-54A3-4424-96C6-5AEE36111B92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8850" yWindow="11565" windowWidth="29880" windowHeight="20775" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="10" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="03-15-Authentication" sheetId="1" r:id="rId1"/>
@@ -24,9 +24,11 @@
     <sheet name="04-27 Parameter nachschauen" sheetId="9" r:id="rId9"/>
     <sheet name="04-28 Die Path-Variable" sheetId="10" r:id="rId10"/>
     <sheet name="04-29 Programme Starten path" sheetId="11" r:id="rId11"/>
+    <sheet name="05-36 Pakete über das Terminal" sheetId="12" r:id="rId12"/>
+    <sheet name="05-37 Pakete + Quellen suchen" sheetId="13" r:id="rId13"/>
+    <sheet name="05-38 Skype nachinstallieren" sheetId="14" r:id="rId14"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="167">
   <si>
     <t>Frage</t>
   </si>
@@ -471,6 +473,72 @@
   </si>
   <si>
     <t>Setze die Variable PATH auf den bisherigen Inhalt und füge ~/bin hinzu (erstmal nur temporär)</t>
+  </si>
+  <si>
+    <t>UBUNTU: Update die Paketlisten</t>
+  </si>
+  <si>
+    <t>apt update</t>
+  </si>
+  <si>
+    <t>apt upgrade</t>
+  </si>
+  <si>
+    <t>apt dist-upgrade</t>
+  </si>
+  <si>
+    <t>Aktualisiere und installiere die neueste Version aller Pakete ohne neue Abhängigkeiten</t>
+  </si>
+  <si>
+    <t>Aktualisiere und installiere die neueste Version aller Pakete mit neuen Abhängigkeiten</t>
+  </si>
+  <si>
+    <t>UBUNTU: Installiere htop</t>
+  </si>
+  <si>
+    <t>apt install htop</t>
+  </si>
+  <si>
+    <t>apt-get install php</t>
+  </si>
+  <si>
+    <t>Alternativer Debianbefehl (nicht apt, nicht apt-get) um php zu installieren</t>
+  </si>
+  <si>
+    <t>Alternativer Debianbefehl (nicht apt, nicht aptitude) um php zu installieren</t>
+  </si>
+  <si>
+    <t>aptitude install php</t>
+  </si>
+  <si>
+    <t>Suche in den Paketlisten nach php</t>
+  </si>
+  <si>
+    <t>apt search php</t>
+  </si>
+  <si>
+    <t>Website für Ubuntu packages</t>
+  </si>
+  <si>
+    <t>packages.ubuntu.com</t>
+  </si>
+  <si>
+    <t>Website für Debian packages</t>
+  </si>
+  <si>
+    <t>packages.debian.org</t>
+  </si>
+  <si>
+    <t>Wo liegen die Konfigurationsdatein für den Paketmanager apt?</t>
+  </si>
+  <si>
+    <t>/etc/apt/sources.list</t>
+  </si>
+  <si>
+    <t>Wo liegen die Konfigurationsdateien für selbst installierte Pakete mit dpkg?</t>
+  </si>
+  <si>
+    <t>/etc/apt/sources.list.d/</t>
   </si>
 </sst>
 </file>
@@ -963,7 +1031,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F84BDF7D-DEC1-439E-B1D8-5715028080F7}">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
@@ -1003,6 +1071,171 @@
       </c>
       <c r="B4" t="s">
         <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C09F1CAF-F311-46EC-A20E-CE34CCDEF86D}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="80.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>149</v>
+      </c>
+      <c r="B3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>150</v>
+      </c>
+      <c r="B4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B592CA16-AC89-4F72-9B54-2C34E7D7D473}">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="69" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B2" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>154</v>
+      </c>
+      <c r="B3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>161</v>
+      </c>
+      <c r="B6" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>163</v>
+      </c>
+      <c r="B7" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BCA7220-F963-44E1-B0D1-4EB93011CB89}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
